--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Desktop\project\project-charter-template\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E576B25-C0FF-474D-8A7D-B1384C246ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B35DE789-5DB1-43DF-927D-B0CEC67EAC69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{012E3F7B-A934-4CA2-8AD9-56C8EA994A26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{E53845C8-7213-4947-BA42-765E622B2AB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Table" sheetId="2" r:id="rId2"/>
+    <sheet name="CodeWord Table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,61 +27,461 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four </t>
-  </si>
-  <si>
-    <t>pencil</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="138">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>RONALD</t>
+  </si>
+  <si>
+    <t>KENNETH</t>
+  </si>
+  <si>
+    <t>GEORGE</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>ALAN</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>DONALD</t>
+  </si>
+  <si>
+    <t>DENNIS</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>GORDON</t>
+  </si>
+  <si>
+    <t>TERENCE</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>JEAN</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>SUSAN</t>
+  </si>
+  <si>
+    <t>JANET</t>
+  </si>
+  <si>
+    <t>MAUREEN</t>
+  </si>
+  <si>
+    <t>BARBARA</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>CAROL</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>PAULINE</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>JOAN</t>
+  </si>
+  <si>
+    <t>PAMELA</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>KATHLEEN</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>SHEILA</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>GILLIAN</t>
+  </si>
+  <si>
+    <t>LINDA</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Codeword</t>
+  </si>
+  <si>
+    <t>S531482</t>
+  </si>
+  <si>
+    <t>CSE1023</t>
+  </si>
+  <si>
+    <t>Whale_ Blue</t>
+  </si>
+  <si>
+    <t>S531483</t>
+  </si>
+  <si>
+    <t>CSE1024</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>Shark_ whale</t>
+  </si>
+  <si>
+    <t>S531484</t>
+  </si>
+  <si>
+    <t>CSE1025</t>
+  </si>
+  <si>
+    <t>Elephant_ African</t>
+  </si>
+  <si>
+    <t>S531485</t>
+  </si>
+  <si>
+    <t>CSE1026</t>
+  </si>
+  <si>
+    <t>Elephant_ Indian</t>
+  </si>
+  <si>
+    <t>S531486</t>
+  </si>
+  <si>
+    <t>CSE1027</t>
+  </si>
+  <si>
+    <t>ARTHUR</t>
+  </si>
+  <si>
+    <t>Giraffe_ male</t>
+  </si>
+  <si>
+    <t>S531487</t>
+  </si>
+  <si>
+    <t>CSE1028</t>
+  </si>
+  <si>
+    <t>Mule</t>
+  </si>
+  <si>
+    <t>S531488</t>
+  </si>
+  <si>
+    <t>CSE1029</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S531491</t>
+  </si>
+  <si>
+    <t>CSE1030</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>S531492</t>
+  </si>
+  <si>
+    <t>CSE1031</t>
+  </si>
+  <si>
+    <t>ALBERT</t>
+  </si>
+  <si>
+    <t>S531493</t>
+  </si>
+  <si>
+    <t>CSE1032</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>Dolphin_ Bottlenose</t>
+  </si>
+  <si>
+    <t>S531494</t>
+  </si>
+  <si>
+    <t>CSE1033</t>
+  </si>
+  <si>
+    <t>ALFRED</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>S531495</t>
+  </si>
+  <si>
+    <t>CSE1034</t>
+  </si>
+  <si>
+    <t>Tapir</t>
+  </si>
+  <si>
+    <t>S531496</t>
+  </si>
+  <si>
+    <t>CSE1035</t>
+  </si>
+  <si>
+    <t>Shark_ Hammerhead</t>
+  </si>
+  <si>
+    <t>S531497</t>
+  </si>
+  <si>
+    <t>CSE1036</t>
+  </si>
+  <si>
+    <t>HAROLD</t>
+  </si>
+  <si>
+    <t>Seal_ fur</t>
+  </si>
+  <si>
+    <t>S531498</t>
+  </si>
+  <si>
+    <t>CSE1037</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>S531499</t>
+  </si>
+  <si>
+    <t>CSE1038</t>
+  </si>
+  <si>
+    <t>FRANK</t>
+  </si>
+  <si>
+    <t>Bear_ Grizzly</t>
+  </si>
+  <si>
+    <t>S531500</t>
+  </si>
+  <si>
+    <t>CSE1039</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>Alligator_ American</t>
+  </si>
+  <si>
+    <t>S531501</t>
+  </si>
+  <si>
+    <t>CSE1040</t>
+  </si>
+  <si>
+    <t>HARRY</t>
+  </si>
+  <si>
+    <t>Sturgeon_ Atlantic</t>
+  </si>
+  <si>
+    <t>S531502</t>
+  </si>
+  <si>
+    <t>CSE1041</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Almond</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Bigger</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>Zebras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,14 +501,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{1994ED31-50F6-49DC-8D20-F8F80ADBFAED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,86 +832,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A087EE7-9C22-40B7-A55E-7EC34C634B41}">
-  <dimension ref="A4:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC81612-DDBD-4A45-AF10-94D886A6941E}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3CDB8-F4EF-4525-9D6E-259421BD43A8}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39C0C2B-960B-4D3A-91BF-FFE396B9EE21}">
+  <dimension ref="A1:A167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75">
+      <c r="A6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75">
+      <c r="A8" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75">
+      <c r="A10" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75">
+      <c r="A12" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75">
+      <c r="A13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75">
+      <c r="A16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75">
+      <c r="A17" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="18.75">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="25" spans="1:1" ht="18.75">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="18.75">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="18.75">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="31" spans="1:1" ht="18.75">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:1" ht="18.75">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="37" spans="1:1" ht="18.75">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="39" spans="1:1" ht="18.75">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="41" spans="1:1" ht="18.75">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="43" spans="1:1" ht="18.75">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="45" spans="1:1" ht="18.75">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="47" spans="1:1" ht="18.75">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="49" spans="1:1" ht="18.75">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="51" spans="1:1" ht="18.75">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="53" spans="1:1" ht="18.75">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="55" spans="1:1" ht="18.75">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="57" spans="1:1" ht="18.75">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="59" spans="1:1" ht="18.75">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="61" spans="1:1" ht="18.75">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="63" spans="1:1" ht="18.75">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="65" spans="1:1" ht="18.75">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="67" spans="1:1" ht="18.75">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="69" spans="1:1" ht="18.75">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="18.75">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="73" spans="1:1" ht="18.75">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="75" spans="1:1" ht="18.75">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="77" spans="1:1" ht="18.75">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="79" spans="1:1" ht="18.75">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="81" spans="1:1" ht="18.75">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="83" spans="1:1" ht="18.75">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="85" spans="1:1" ht="18.75">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="87" spans="1:1" ht="18.75">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="89" spans="1:1" ht="18.75">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="91" spans="1:1" ht="18.75">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="93" spans="1:1" ht="18.75">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="95" spans="1:1" ht="18.75">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="97" spans="1:1" ht="18.75">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="99" spans="1:1" ht="18.75">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="101" spans="1:1" ht="18.75">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="103" spans="1:1" ht="18.75">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="105" spans="1:1" ht="18.75">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="107" spans="1:1" ht="18.75">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="109" spans="1:1" ht="18.75">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="111" spans="1:1" ht="18.75">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="113" spans="1:1" ht="18.75">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="115" spans="1:1" ht="18.75">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="117" spans="1:1" ht="18.75">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="119" spans="1:1" ht="18.75">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="121" spans="1:1" ht="18.75">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="123" spans="1:1" ht="18.75">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="125" spans="1:1" ht="18.75">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="127" spans="1:1" ht="18.75">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="129" spans="1:1" ht="18.75">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="131" spans="1:1" ht="18.75">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="133" spans="1:1" ht="18.75">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="135" spans="1:1" ht="18.75">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="137" spans="1:1" ht="18.75">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="139" spans="1:1" ht="18.75">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="141" spans="1:1" ht="18.75">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="143" spans="1:1" ht="18.75">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="145" spans="1:1" ht="18.75">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="147" spans="1:1" ht="18.75">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="149" spans="1:1" ht="18.75">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="151" spans="1:1" ht="18.75">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="153" spans="1:1" ht="18.75">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="155" spans="1:1" ht="18.75">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="157" spans="1:1" ht="18.75">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="159" spans="1:1" ht="18.75">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="161" spans="1:1" ht="18.75">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="163" spans="1:1" ht="18.75">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="165" spans="1:1" ht="18.75">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="167" spans="1:1" ht="18.75">
+      <c r="A167" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E66DF-9E50-4BF5-9D1D-801B293638F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE6E6931-8853-461E-AF7F-0622E468EDFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C44E7D91-EDC8-48E1-9530-79DC7E5796F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$203</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
-  <si>
-    <t>Codeword</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>Africa</t>
   </si>
@@ -67,12 +72,6 @@
     <t>Desk</t>
   </si>
   <si>
-    <t>Dim</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
     <t>Echo</t>
   </si>
   <si>
@@ -88,9 +87,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Foxtrot</t>
-  </si>
-  <si>
     <t>Fancy</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>Hidden</t>
   </si>
   <si>
-    <t>Ice</t>
-  </si>
-  <si>
     <t>Inkspot</t>
   </si>
   <si>
@@ -199,9 +192,6 @@
     <t>Purple</t>
   </si>
   <si>
-    <t>Pill</t>
-  </si>
-  <si>
     <t>Quick</t>
   </si>
   <si>
@@ -289,9 +279,6 @@
     <t>Young</t>
   </si>
   <si>
-    <t>Zap</t>
-  </si>
-  <si>
     <t>Zulu</t>
   </si>
   <si>
@@ -299,13 +286,358 @@
   </si>
   <si>
     <t>Zebra</t>
+  </si>
+  <si>
+    <t>CODEWORDS</t>
+  </si>
+  <si>
+    <t>Above</t>
+  </si>
+  <si>
+    <t>Abuse</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Acute</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>Adopt</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Dozen</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Drawn</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Drove</t>
+  </si>
+  <si>
+    <t>Dying</t>
+  </si>
+  <si>
+    <t>Eager</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Every</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Keyhole</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Lives</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Lying</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Occur</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Ought</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Shown</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>Since</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Sixty</t>
+  </si>
+  <si>
+    <t>Sized</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Still</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Stood</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Strip</t>
+  </si>
+  <si>
+    <t>Stuck</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>Would</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Wrote</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,34 +646,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -349,42 +668,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +714,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -431,7 +726,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -478,6 +773,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -513,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,589 +993,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D24027-CC6D-4E26-90C5-75B1A3D97A26}">
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B203" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\GDP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E5CDD7-4FE5-48CA-A424-8BA16EB81D35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED47D88-F891-4D5D-9425-3CFCD2DA441A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{012E3F7B-A934-4CA2-8AD9-56C8EA994A26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,75 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>apple</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>hello</t>
   </si>
   <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four </t>
-  </si>
-  <si>
-    <t>pencil</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab </t>
-  </si>
-  <si>
-    <t>thee</t>
-  </si>
-  <si>
-    <t>same]</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>gone</t>
+    <t>hiase</t>
+  </si>
+  <si>
+    <t>asdfasf</t>
+  </si>
+  <si>
+    <t>asdfasfas</t>
+  </si>
+  <si>
+    <t>asrv</t>
   </si>
 </sst>
 </file>
@@ -165,7 +106,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -177,7 +118,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -224,23 +165,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,23 +200,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,128 +351,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A087EE7-9C22-40B7-A55E-7EC34C634B41}">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED47D88-F891-4D5D-9425-3CFCD2DA441A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,31 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
-    <t>hello</t>
+    <t>SID</t>
   </si>
   <si>
-    <t>hiase</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>asdfasf</t>
+    <t>S530742@nwmissouri.edu</t>
   </si>
   <si>
-    <t>asdfasfas</t>
-  </si>
-  <si>
-    <t>asrv</t>
+    <t>Naveen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +71,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,46 +358,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,42 +1,203 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2AB7DD-16E8-43E5-B498-60DF3CA7A6C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{AE42C86F-48A7-429A-A957-7E38505595EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
-  <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>S530742@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Wellness</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Would</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Wrote</t>
+  </si>
+  <si>
+    <t>Xrayer</t>
+  </si>
+  <si>
+    <t>Yankee</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zuluo</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Quasar</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Redwood</t>
+  </si>
+  <si>
+    <t>Ringer</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Rosea</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Shown</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>Since</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Sixty</t>
+  </si>
+  <si>
+    <t>Sized</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Still</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Stood</t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -46,12 +207,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,16 +230,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -113,7 +270,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -125,7 +282,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -172,6 +329,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -207,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,71 +549,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C00EC2-BEAA-457B-BC9C-73991B0933F1}">
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,54 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689CDDF3-1D00-4B85-B460-6B23542ED8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{27EC311A-257A-4E1E-9A20-7C1CC632166D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>SID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>S530742@nwmissouri.edu</t>
-  </si>
-  <si>
-    <t>Naveen</t>
+    <t>Heklp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,16 +65,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -113,7 +104,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -125,7 +116,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -172,6 +163,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -207,6 +215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,71 +383,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719BE7EC-7D77-43A9-B2B4-CEB6A9B4F1F8}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP2\Codeword-GDPII\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689CDDF3-1D00-4B85-B460-6B23542ED8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC90609-AF27-445D-8BC0-EBC043F12932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{27EC311A-257A-4E1E-9A20-7C1CC632166D}"/>
   </bookViews>
@@ -30,19 +30,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t>Heklp</t>
+    <t>S530742@nwmissouri.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen </t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,13 +82,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,18 +404,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719BE7EC-7D77-43A9-B2B4-CEB6A9B4F1F8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{36C8502F-BC8F-4ED9-A6AF-71C4B4A7CC6A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B15D2167-36EE-43E3-8B77-C3777996E8FC}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F0097B7A-0E53-409E-90C1-B042FB82BE21}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{2ECAA5DD-8FB3-4EB8-A6A5-458B72F11BAF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -19,42 +19,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
+  <si>
+    <t>ABOVE</t>
+  </si>
+  <si>
+    <t>ABUSE</t>
+  </si>
+  <si>
+    <t>ACTOR</t>
+  </si>
+  <si>
+    <t>ACUTE</t>
+  </si>
+  <si>
+    <t>ADMIT</t>
+  </si>
+  <si>
+    <t>ADOPT</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
   <si>
     <t>AFRICA</t>
   </si>
   <si>
+    <t>AFTER</t>
+  </si>
+  <si>
     <t>ALMOND</t>
   </si>
   <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
     <t>ANGER</t>
   </si>
   <si>
-    <t>AMERICA</t>
+    <t>BANKS</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
   </si>
   <si>
     <t>BRAVO</t>
   </si>
   <si>
-    <t>BANKING</t>
-  </si>
-  <si>
-    <t>BOUNCE</t>
-  </si>
-  <si>
-    <t>BIGGER</t>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CLAIM</t>
+  </si>
+  <si>
+    <t>CLASSES</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>CLOCK</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>COACH</t>
+  </si>
+  <si>
+    <t>COAST</t>
   </si>
   <si>
     <t>COMPUTER</t>
   </si>
   <si>
-    <t>CANCER</t>
-  </si>
-  <si>
-    <t>CHAIR</t>
-  </si>
-  <si>
-    <t>CENTER</t>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COURT</t>
   </si>
   <si>
     <t>DAGGER</t>
@@ -63,37 +120,100 @@
     <t>DESKS</t>
   </si>
   <si>
-    <t>DUMPED</t>
-  </si>
-  <si>
-    <t>BLACKDOG</t>
-  </si>
-  <si>
-    <t>ECHOES</t>
+    <t>DOING</t>
+  </si>
+  <si>
+    <t>DOUBT</t>
+  </si>
+  <si>
+    <t>DOZEN</t>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t>DRAMA</t>
+  </si>
+  <si>
+    <t>DRAWN</t>
+  </si>
+  <si>
+    <t>DREAM</t>
+  </si>
+  <si>
+    <t>DRESS</t>
+  </si>
+  <si>
+    <t>DRILL</t>
+  </si>
+  <si>
+    <t>DRINK</t>
+  </si>
+  <si>
+    <t>DRIVE</t>
+  </si>
+  <si>
+    <t>DROVE</t>
+  </si>
+  <si>
+    <t>DYING</t>
+  </si>
+  <si>
+    <t>EAGER</t>
+  </si>
+  <si>
+    <t>EARLY</t>
+  </si>
+  <si>
+    <t>ECHOS</t>
   </si>
   <si>
     <t>ELVIS</t>
   </si>
   <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>EVERY</t>
+  </si>
+  <si>
+    <t>EXACT</t>
+  </si>
+  <si>
+    <t>EXIST</t>
+  </si>
+  <si>
     <t>EXTRA</t>
   </si>
   <si>
-    <t>ENGAGE</t>
+    <t>FAITH</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FAULT</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>FIBER</t>
+  </si>
+  <si>
+    <t>FIELD</t>
   </si>
   <si>
     <t>FRANCE</t>
   </si>
   <si>
-    <t>FOXTROT</t>
-  </si>
-  <si>
-    <t>FANCY</t>
-  </si>
-  <si>
-    <t>FELINE</t>
-  </si>
-  <si>
-    <t>GULFES</t>
+    <t>GERMANY</t>
   </si>
   <si>
     <t>GINGER</t>
@@ -102,91 +222,181 @@
     <t>GLOBE</t>
   </si>
   <si>
-    <t>GERMANY</t>
+    <t>GOLFS</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
   </si>
   <si>
     <t>HOTEL</t>
   </si>
   <si>
-    <t>HANGER</t>
-  </si>
-  <si>
-    <t>HELMET</t>
-  </si>
-  <si>
-    <t>HIDDEN</t>
-  </si>
-  <si>
-    <t>ICEBURG</t>
+    <t>ICECREAM</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
   </si>
   <si>
     <t>INKSPOT</t>
   </si>
   <si>
-    <t>IMPULSE</t>
-  </si>
-  <si>
-    <t>IGORANCE</t>
-  </si>
-  <si>
-    <t>KILOMETERS</t>
-  </si>
-  <si>
     <t>KANGAROO</t>
   </si>
   <si>
     <t>KENNEDY</t>
   </si>
   <si>
-    <t>LEMONS</t>
-  </si>
-  <si>
-    <t>LINCON</t>
+    <t>KEYHOLE</t>
+  </si>
+  <si>
+    <t>KILOGRAM</t>
+  </si>
+  <si>
+    <t>LAMPS</t>
+  </si>
+  <si>
+    <t>LEMON</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>LINES</t>
+  </si>
+  <si>
+    <t>LINKS</t>
+  </si>
+  <si>
+    <t>LIVES</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
   </si>
   <si>
     <t>LONDON</t>
   </si>
   <si>
-    <t>LINNER</t>
-  </si>
-  <si>
-    <t>MONKEY</t>
+    <t>LOOSE</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>LYING</t>
+  </si>
+  <si>
+    <t>MAGIC</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>MAKER</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>MINKS</t>
+  </si>
+  <si>
+    <t>MONEY</t>
   </si>
   <si>
     <t>MUMBAI</t>
   </si>
   <si>
-    <t>MONEY</t>
-  </si>
-  <si>
-    <t>MARKET</t>
-  </si>
-  <si>
     <t>NATIVE</t>
   </si>
   <si>
-    <t>NUMBER</t>
+    <t>NESTS</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>NOVEL</t>
   </si>
   <si>
     <t>NOVEMBER</t>
   </si>
   <si>
-    <t>NICKEL</t>
+    <t>NURSE</t>
   </si>
   <si>
     <t>OBJECT</t>
   </si>
   <si>
+    <t>OCCUR</t>
+  </si>
+  <si>
+    <t>OCEAN</t>
+  </si>
+  <si>
+    <t>OFFER</t>
+  </si>
+  <si>
+    <t>OFTEN</t>
+  </si>
+  <si>
+    <t>OGRES</t>
+  </si>
+  <si>
+    <t>ONION</t>
+  </si>
+  <si>
     <t>OPTION</t>
   </si>
   <si>
-    <t>OLDLIFE</t>
-  </si>
-  <si>
-    <t>OLIOCOOK</t>
-  </si>
-  <si>
-    <t>PICTURES</t>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>OUGHT</t>
+  </si>
+  <si>
+    <t>PAINT</t>
+  </si>
+  <si>
+    <t>PANEL</t>
+  </si>
+  <si>
+    <t>PAPAS</t>
+  </si>
+  <si>
+    <t>PAPER</t>
   </si>
   <si>
     <t>PENCIL</t>
@@ -195,85 +405,199 @@
     <t>PURPLE</t>
   </si>
   <si>
-    <t>PUMPKIN</t>
-  </si>
-  <si>
-    <t>QUICKLY</t>
-  </si>
-  <si>
     <t>QUASAR</t>
   </si>
   <si>
-    <t>QUALITY</t>
+    <t>QUEST</t>
+  </si>
+  <si>
+    <t>QUICK</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RINGS</t>
   </si>
   <si>
     <t>ROMANCE</t>
   </si>
   <si>
-    <t>REDWOOD</t>
-  </si>
-  <si>
-    <t>RUSSIAN</t>
-  </si>
-  <si>
-    <t>RETIREMENT</t>
+    <t>ROSES</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SHOCK</t>
+  </si>
+  <si>
+    <t>SHOOT</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>SHOWN</t>
+  </si>
+  <si>
+    <t>SIGHT</t>
+  </si>
+  <si>
+    <t>SINCE</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>SIXTH</t>
+  </si>
+  <si>
+    <t>SIXTY</t>
+  </si>
+  <si>
+    <t>SIZED</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>SLIDE</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>SMILE</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>STEAM</t>
+  </si>
+  <si>
+    <t>STEEL</t>
   </si>
   <si>
     <t>STEVE</t>
   </si>
   <si>
-    <t>SENDER</t>
-  </si>
-  <si>
-    <t>SATURN</t>
-  </si>
-  <si>
-    <t>SINGER</t>
+    <t>STICK</t>
+  </si>
+  <si>
+    <t>STILL</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>STONE</t>
+  </si>
+  <si>
+    <t>STOOD</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>STORM</t>
+  </si>
+  <si>
+    <t>STORY</t>
+  </si>
+  <si>
+    <t>STRIP</t>
+  </si>
+  <si>
+    <t>STUCK</t>
+  </si>
+  <si>
+    <t>STUDY</t>
+  </si>
+  <si>
+    <t>STUFF</t>
+  </si>
+  <si>
+    <t>STYLE</t>
+  </si>
+  <si>
+    <t>SUGAR</t>
+  </si>
+  <si>
+    <t>SUITE</t>
+  </si>
+  <si>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>TANKS</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
   </si>
   <si>
     <t>TWILIGHT</t>
   </si>
   <si>
-    <t>TITANIC</t>
-  </si>
-  <si>
-    <t>TOWER</t>
-  </si>
-  <si>
-    <t>TALENT</t>
+    <t>ULTIMATE</t>
   </si>
   <si>
     <t>UNIFORM</t>
   </si>
   <si>
-    <t>ULTIMATE</t>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
   </si>
   <si>
     <t>VICTORY</t>
   </si>
   <si>
-    <t>VAGRANT</t>
-  </si>
-  <si>
-    <t>VELVET</t>
-  </si>
-  <si>
     <t>VOICE</t>
   </si>
   <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
     <t>WHISKEY</t>
   </si>
   <si>
     <t>WITCH</t>
   </si>
   <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>XEROXED</t>
+    <t>WOULD</t>
+  </si>
+  <si>
+    <t>WOUND</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>WRONG</t>
+  </si>
+  <si>
+    <t>WROTE</t>
+  </si>
+  <si>
+    <t>XRAYS</t>
   </si>
   <si>
     <t>YANKEE</t>
@@ -282,19 +606,16 @@
     <t>YESTERDAY</t>
   </si>
   <si>
+    <t>YIELD</t>
+  </si>
+  <si>
     <t>YOUNG</t>
   </si>
   <si>
-    <t>ZIPPED</t>
-  </si>
-  <si>
-    <t>ZINGER</t>
+    <t>ZEBRA</t>
   </si>
   <si>
     <t>ZOMBIE</t>
-  </si>
-  <si>
-    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
@@ -310,7 +631,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -338,9 +659,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,472 +940,1012 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A92"/>
+      <selection sqref="A1:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,108 +5,326 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Project\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763BFB01-D773-4879-9C3F-51D48449CB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0C5A3-622D-4526-B0E4-E2D16A81208C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{012E3F7B-A934-4CA2-8AD9-56C8EA994A26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9C9CA1DB-B53F-4F86-B663-5B30F3274407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>pencil</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>same]</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>tabes</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>bools</t>
-  </si>
-  <si>
-    <t>wolfs</t>
-  </si>
-  <si>
-    <t>doors</t>
-  </si>
-  <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fourth </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>ALMOND</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>DUMPED</t>
+  </si>
+  <si>
+    <t>BLACKDOG</t>
+  </si>
+  <si>
+    <t>ECHOES</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>GULFES</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>GLOBE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>ICEBURG</t>
+  </si>
+  <si>
+    <t>INKSPOT</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>IGORANCE</t>
+  </si>
+  <si>
+    <t>KILOMETERS</t>
+  </si>
+  <si>
+    <t>KANGAROO</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>LEMONS</t>
+  </si>
+  <si>
+    <t>LINCON</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>LINNER</t>
+  </si>
+  <si>
+    <t>MONKEY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OLDLIFE</t>
+  </si>
+  <si>
+    <t>OLIOCOOK</t>
+  </si>
+  <si>
+    <t>PICTURES</t>
+  </si>
+  <si>
+    <t>PENCIL</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>PUMPKIN</t>
+  </si>
+  <si>
+    <t>QUICKLY</t>
+  </si>
+  <si>
+    <t>QUASAR</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>STEVE</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>TALENT</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ULTIMATE</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
+  </si>
+  <si>
+    <t>VOICE</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>WITCH</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>XEROXED</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ZIPPED</t>
+  </si>
+  <si>
+    <t>ZINGER</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,131 +666,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A087EE7-9C22-40B7-A55E-7EC34C634B41}">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD555D-849D-4A7D-847C-A1A487A0923A}">
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,111 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531383\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B53FCD5F-FC3E-422A-91C8-F7CE9F741C61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D1DE41AF-6572-4995-B021-87845475340D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>UDFHISH</t>
-  </si>
-  <si>
-    <t>FHISDG</t>
-  </si>
-  <si>
-    <t>FIKAHIO</t>
-  </si>
-  <si>
-    <t>GFIKFJ</t>
-  </si>
-  <si>
-    <t>VDJFUDIS</t>
-  </si>
-  <si>
-    <t>HDFGAIU</t>
-  </si>
-  <si>
-    <t>HCUkHFHFG</t>
-  </si>
-  <si>
-    <t>JDFGHUG</t>
-  </si>
-  <si>
-    <t>JFVHDGUF</t>
-  </si>
-  <si>
-    <t>SFUFGU</t>
-  </si>
-  <si>
-    <t>JFSFGGUFGU</t>
-  </si>
-  <si>
-    <t>SJHFUIAGUI</t>
-  </si>
-  <si>
-    <t>SFHDFISGU</t>
-  </si>
-  <si>
-    <t>FXFXNMFFSH</t>
-  </si>
-  <si>
-    <t>SNFJHUEGUG</t>
-  </si>
-  <si>
-    <t>MSDNJKAFHUA</t>
-  </si>
-  <si>
-    <t>NFVBUEGG</t>
-  </si>
-  <si>
-    <t>NJHGUHGU</t>
-  </si>
-  <si>
-    <t>FJSGHSU</t>
-  </si>
-  <si>
-    <t>GJUGESGU</t>
-  </si>
-  <si>
-    <t>ZJFIEUGUG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>ALMOND</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>DUMPED</t>
+  </si>
+  <si>
+    <t>BLACKDOG</t>
+  </si>
+  <si>
+    <t>ECHOES</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>GULFES</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>GLOBE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>ICEBURG</t>
+  </si>
+  <si>
+    <t>INKSPOT</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>IGORANCE</t>
+  </si>
+  <si>
+    <t>KILOMETERS</t>
+  </si>
+  <si>
+    <t>KANGAROO</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>LEMONS</t>
+  </si>
+  <si>
+    <t>LINCON</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>LINNER</t>
+  </si>
+  <si>
+    <t>MONKEY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OLDLIFE</t>
+  </si>
+  <si>
+    <t>OLIOCOOK</t>
+  </si>
+  <si>
+    <t>PICTURES</t>
+  </si>
+  <si>
+    <t>PENCIL</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>PUMPKIN</t>
+  </si>
+  <si>
+    <t>QUICKLY</t>
+  </si>
+  <si>
+    <t>QUASAR</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>STEVE</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>TALENT</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ULTIMATE</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
+  </si>
+  <si>
+    <t>VOICE</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>WITCH</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>XEROXED</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ZIPPED</t>
+  </si>
+  <si>
+    <t>ZINGER</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +336,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +375,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -176,7 +387,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -223,23 +434,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,118 +620,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D634D688-3C4F-4035-8470-5BDD59F2ADCD}">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection sqref="A1:A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,95 +5,61 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Codeword\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03728634-61F4-4C17-98FB-9F746F1B39C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180DC64-CD99-4A18-843F-2724547679DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3570" xr2:uid="{012E3F7B-A934-4CA2-8AD9-56C8EA994A26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{1600F7D5-305A-44F7-BD75-E7962F1BB6D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">above </t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fancy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello </t>
+  </si>
+  <si>
+    <t>yummy</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
   <si>
     <t>apple</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four </t>
-  </si>
-  <si>
-    <t>pencil</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>laptop</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tab </t>
-  </si>
-  <si>
-    <t>thee</t>
-  </si>
-  <si>
-    <t>same]</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>gone</t>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>coconut</t>
   </si>
 </sst>
 </file>
@@ -129,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,136 +413,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A087EE7-9C22-40B7-A55E-7EC34C634B41}">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819A3EB0-11AB-4AB4-8206-C06F428B9459}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12222342</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530742\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180DC64-CD99-4A18-843F-2724547679DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B043B6F5-E8B7-4867-8D63-427C8926945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{1600F7D5-305A-44F7-BD75-E7962F1BB6D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79304DE6-FF10-4F3E-9807-C28912453DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,46 +30,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">above </t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fancy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello </t>
-  </si>
-  <si>
-    <t>yummy</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>coconut</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>SGFAYTDSF</t>
+  </si>
+  <si>
+    <t>VCAGYFT</t>
+  </si>
+  <si>
+    <t>BVCHGFA</t>
+  </si>
+  <si>
+    <t>SDVAY@#HG</t>
+  </si>
+  <si>
+    <t>BVSH%&amp;*DBNVDHJ</t>
+  </si>
+  <si>
+    <t>BVSDHG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,16 +88,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819A3EB0-11AB-4AB4-8206-C06F428B9459}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1824BFF-1CD6-472E-A1E7-A277624C3FE5}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,57 +424,34 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{09FC8B74-0FF5-4FE0-BD13-DF9E75DC1E60}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,37 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530742\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B043B6F5-E8B7-4867-8D63-427C8926945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79304DE6-FF10-4F3E-9807-C28912453DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
-  <si>
-    <t>duplicate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>SGFAYTDSF</t>
+  </si>
+  <si>
+    <t>VCAGYFT</t>
+  </si>
+  <si>
+    <t>BVCHGFA</t>
+  </si>
+  <si>
+    <t>SDVAY@#HG</t>
+  </si>
+  <si>
+    <t>BVSH%&amp;*DBNVDHJ</t>
+  </si>
+  <si>
+    <t>BVSDHG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,13 +88,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -93,7 +130,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -105,7 +142,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -152,6 +189,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -187,6 +241,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1824BFF-1CD6-472E-A1E7-A277624C3FE5}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -354,15 +425,33 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{09FC8B74-0FF5-4FE0-BD13-DF9E75DC1E60}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,59 +1,306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530742\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B043B6F5-E8B7-4867-8D63-427C8926945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79304DE6-FF10-4F3E-9807-C28912453DA5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>SGFAYTDSF</t>
-  </si>
-  <si>
-    <t>VCAGYFT</t>
-  </si>
-  <si>
-    <t>BVCHGFA</t>
-  </si>
-  <si>
-    <t>SDVAY@#HG</t>
-  </si>
-  <si>
-    <t>BVSH%&amp;*DBNVDHJ</t>
-  </si>
-  <si>
-    <t>BVSDHG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>ALMOND</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>DUMPED</t>
+  </si>
+  <si>
+    <t>BLACKDOG</t>
+  </si>
+  <si>
+    <t>ECHOES</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>GULFES</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>GLOBE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>ICEBURG</t>
+  </si>
+  <si>
+    <t>INKSPOT</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>IGORANCE</t>
+  </si>
+  <si>
+    <t>KILOMETERS</t>
+  </si>
+  <si>
+    <t>KANGAROO</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>LEMONS</t>
+  </si>
+  <si>
+    <t>LINCON</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>LINNER</t>
+  </si>
+  <si>
+    <t>MONKEY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OLDLIFE</t>
+  </si>
+  <si>
+    <t>OLIOCOOK</t>
+  </si>
+  <si>
+    <t>PICTURES</t>
+  </si>
+  <si>
+    <t>PENCIL</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>PUMPKIN</t>
+  </si>
+  <si>
+    <t>QUICKLY</t>
+  </si>
+  <si>
+    <t>QUASAR</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>STEVE</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>TALENT</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ULTIMATE</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
+  </si>
+  <si>
+    <t>VOICE</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>WITCH</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>XEROXED</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ZIPPED</t>
+  </si>
+  <si>
+    <t>ZINGER</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,12 +310,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,16 +333,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -130,7 +375,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +387,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,23 +434,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,23 +469,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,49 +620,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1824BFF-1CD6-472E-A1E7-A277624C3FE5}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{09FC8B74-0FF5-4FE0-BD13-DF9E75DC1E60}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,79 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054504EE-34FB-47AA-9645-3FA619695931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCF38B8-CD38-4C11-B0E7-E1C510792738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E41FB720-665D-474E-95EA-BA568D94656E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RANDOM</t>
+    <t>ABCDFSDF</t>
   </si>
   <si>
-    <t>CODEWORD</t>
+    <t>VDAG$%^</t>
   </si>
   <si>
-    <t>DUPLICATE</t>
+    <t>HCSYFGDY</t>
   </si>
   <si>
-    <t>SMALLER</t>
+    <t>VSHGDHDDH</t>
   </si>
   <si>
-    <t>TALLERS</t>
-  </si>
-  <si>
-    <t>IPHONES</t>
-  </si>
-  <si>
-    <t>MOBILES</t>
-  </si>
-  <si>
-    <t>TEMPERATURE</t>
-  </si>
-  <si>
-    <t>SNOW  ING</t>
-  </si>
-  <si>
-    <t>FA  ILURE</t>
+    <t>BVSHVDGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,17 +77,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -139,7 +116,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -151,7 +128,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -198,6 +175,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,6 +227,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,69 +395,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE50FBC-9526-48BF-B0CD-E686387A005C}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,60 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531500\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCF38B8-CD38-4C11-B0E7-E1C510792738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC15208-FF67-44DC-BB06-456E383A252F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E41FB720-665D-474E-95EA-BA568D94656E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ABCDFSDF</t>
+    <t>RANDOM</t>
   </si>
   <si>
-    <t>VDAG$%^</t>
-  </si>
-  <si>
-    <t>HCSYFGDY</t>
-  </si>
-  <si>
-    <t>VSHGDHDDH</t>
-  </si>
-  <si>
-    <t>BVSHVDGH</t>
+    <t>CODEWORD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +72,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -116,7 +115,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -128,7 +127,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -175,23 +174,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -227,23 +209,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,41 +360,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE50FBC-9526-48BF-B0CD-E686387A005C}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC15208-FF67-44DC-BB06-456E383A252F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29559F46-52D8-4BE2-8A7E-D4BF2E2B6304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>RANDOM</t>
   </si>
   <si>
     <t>CODEWORD</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>SMALLER</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>TALLERS</t>
+  </si>
+  <si>
+    <t>IPHONES</t>
+  </si>
+  <si>
+    <t>MOBILES</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>SNOWING</t>
   </si>
 </sst>
 </file>
@@ -361,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +405,51 @@
       </c>
       <c r="B2" s="1"/>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29559F46-52D8-4BE2-8A7E-D4BF2E2B6304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CDB1A6-53C8-4334-8C61-C270E3A72D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>RANDOM</t>
   </si>
@@ -34,9 +34,6 @@
     <t>SMALLER</t>
   </si>
   <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
     <t>TALLERS</t>
   </si>
   <si>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t>SNOWING</t>
+  </si>
+  <si>
+    <t>FAILURE#$%</t>
+  </si>
+  <si>
+    <t>!#$%^&amp;*(</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,12 +411,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,31 +431,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1234556</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="!@#$%^" xr:uid="{5F49B164-7F00-4C84-BA8C-4E4F95579A9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CDB1A6-53C8-4334-8C61-C270E3A72D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC15208-FF67-44DC-BB06-456E383A252F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RANDOM</t>
   </si>
   <si>
     <t>CODEWORD</t>
-  </si>
-  <si>
-    <t>DUPLICATE</t>
-  </si>
-  <si>
-    <t>SMALLER</t>
-  </si>
-  <si>
-    <t>TALLERS</t>
-  </si>
-  <si>
-    <t>IPHONES</t>
-  </si>
-  <si>
-    <t>MOBILES</t>
-  </si>
-  <si>
-    <t>TEMPERATURE</t>
-  </si>
-  <si>
-    <t>SNOWING</t>
-  </si>
-  <si>
-    <t>FAILURE#$%</t>
-  </si>
-  <si>
-    <t>!#$%^&amp;*(</t>
   </si>
 </sst>
 </file>
@@ -103,11 +76,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,61 +381,8 @@
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1234556</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="!@#$%^" xr:uid="{5F49B164-7F00-4C84-BA8C-4E4F95579A9E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,38 +1,315 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC15208-FF67-44DC-BB06-456E383A252F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP II\Codeword-GDPII\Documentation\Sample Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3C890-398B-49F9-9AD4-0899C92BF1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9C9CA1DB-B53F-4F86-B663-5B30F3274407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>RANDOM</t>
-  </si>
-  <si>
-    <t>CODEWORD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>ANGER</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>BANKING</t>
+  </si>
+  <si>
+    <t>BOUNCE</t>
+  </si>
+  <si>
+    <t>BIGGER</t>
+  </si>
+  <si>
+    <t>COMPUTER</t>
+  </si>
+  <si>
+    <t>CANCER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>DAGGER</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>DUMPED</t>
+  </si>
+  <si>
+    <t>BLACKDOG</t>
+  </si>
+  <si>
+    <t>ECHOES</t>
+  </si>
+  <si>
+    <t>ELVIS</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>ENGAGE</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>FELINE</t>
+  </si>
+  <si>
+    <t>GULFES</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>GLOBE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>HANGER</t>
+  </si>
+  <si>
+    <t>HELMET</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>ICEBURG</t>
+  </si>
+  <si>
+    <t>INKSPOT</t>
+  </si>
+  <si>
+    <t>IMPULSE</t>
+  </si>
+  <si>
+    <t>IGORANCE</t>
+  </si>
+  <si>
+    <t>KILOMETERS</t>
+  </si>
+  <si>
+    <t>KANGAROO</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>LEMONS</t>
+  </si>
+  <si>
+    <t>LINCON</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>LINNER</t>
+  </si>
+  <si>
+    <t>MONKEY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>NATIVE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OLDLIFE</t>
+  </si>
+  <si>
+    <t>OLIOCOOK</t>
+  </si>
+  <si>
+    <t>PICTURES</t>
+  </si>
+  <si>
+    <t>PENCIL</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>PUMPKIN</t>
+  </si>
+  <si>
+    <t>QUICKLY</t>
+  </si>
+  <si>
+    <t>QUASAR</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>ROMANCE</t>
+  </si>
+  <si>
+    <t>REDWOOD</t>
+  </si>
+  <si>
+    <t>RUSSIAN</t>
+  </si>
+  <si>
+    <t>RETIREMENT</t>
+  </si>
+  <si>
+    <t>STEVE</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>SINGER</t>
+  </si>
+  <si>
+    <t>TWILIGHT</t>
+  </si>
+  <si>
+    <t>TITANIC</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>TALENT</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ULTIMATE</t>
+  </si>
+  <si>
+    <t>VICTORY</t>
+  </si>
+  <si>
+    <t>VAGRANT</t>
+  </si>
+  <si>
+    <t>VELVET</t>
+  </si>
+  <si>
+    <t>VOICE</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>WITCH</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>XEROXED</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ZIPPED</t>
+  </si>
+  <si>
+    <t>ZINGER</t>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,18 +318,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,17 +341,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,7 +383,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -127,7 +395,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -174,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -209,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,29 +662,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD555D-849D-4A7D-847C-A1A487A0923A}">
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12312</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>